--- a/Input/Hense_Merkur/benefits.xlsx
+++ b/Input/Hense_Merkur/benefits.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Worldwide excluding USA, CAN, Carrib, China, HK, Macau, RUS, Sing, Switz, &amp; UK</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE - Neuron General Plus Inc. MCG &amp; AHD ROW - Henner</t>
+    <t xml:space="preserve">UAE - Neuron General Plus Inc. MCG &amp; AHD</t>
   </si>
   <si>
     <t xml:space="preserve">Out of network in a country with network coverage- 75% of actual costs (100% for optical and dental)
@@ -294,7 +294,7 @@
   </si>
   <si>
     <t xml:space="preserve">●20% up to a max of AED 50 
-●20% up to a max of AED 75</t>
+●20% up to a max of AED 100</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
@@ -306,10 +306,10 @@
     <t xml:space="preserve">hansemerkur</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-31</t>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-31</t>
   </si>
   <si>
     <t xml:space="preserve">NE/Dubai</t>
@@ -337,27 +337,7 @@
     <t xml:space="preserve">Worldwide excluding USA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20% up to a max of AED 75/75 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Prestige Platinum,Prestige Gold,Prestige Silver Plus,Prestige Silver,Prestige Bronze</t>
-    </r>
+    <t xml:space="preserve">20% up to a max of AED 100/100 - Prestige Platinum,Prestige Gold,Prestige Silver Plus,Prestige Silver,Prestige Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">Select Silver Plus</t>
@@ -393,6 +373,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Select Platinum,Select Gold,Select Silver Plus,Select Silver,Select Bronze</t>
     </r>
@@ -425,7 +406,7 @@
     <t xml:space="preserve">Unlimited</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE - Neuron- Comprehensive ROW - Henner</t>
+    <t xml:space="preserve">UAE - Neuron- Comprehensive</t>
   </si>
   <si>
     <t xml:space="preserve">100% of actual costs</t>
@@ -469,7 +450,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -496,12 +477,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -511,6 +486,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,7 +531,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,19 +556,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,15 +583,15 @@
   </sheetPr>
   <dimension ref="A1:BL11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BJ1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL2" activeCellId="0" sqref="BL2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH3" activeCellId="0" sqref="BH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="146.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="89.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="89.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="65.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.97"/>
@@ -905,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="P2" s="4"/>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -975,10 +943,10 @@
       </c>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU2" s="3" t="s">
@@ -1025,10 +993,10 @@
       <c r="BJ2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BL2" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1075,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>97</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -1145,10 +1113,10 @@
       </c>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU3" s="3" t="s">
@@ -1183,7 +1151,7 @@
       <c r="BK3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BL3" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1230,7 +1198,7 @@
         <v>67</v>
       </c>
       <c r="P4" s="4"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -1300,10 +1268,10 @@
       </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="7" t="s">
+      <c r="AS4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU4" s="3" t="s">
@@ -1382,7 +1350,7 @@
         <v>67</v>
       </c>
       <c r="P5" s="4"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R5" s="3" t="s">
@@ -1452,10 +1420,10 @@
       </c>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
-      <c r="AS5" s="7" t="s">
+      <c r="AS5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT5" s="7" t="s">
+      <c r="AT5" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU5" s="3" t="s">
@@ -1531,7 +1499,7 @@
         <v>67</v>
       </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R6" s="3" t="s">
@@ -1601,10 +1569,10 @@
       </c>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
-      <c r="AS6" s="7" t="s">
+      <c r="AS6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AT6" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU6" s="3" t="s">
@@ -1680,7 +1648,7 @@
         <v>67</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R7" s="3" t="s">
@@ -1750,10 +1718,10 @@
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
-      <c r="AS7" s="7" t="s">
+      <c r="AS7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT7" s="7" t="s">
+      <c r="AT7" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU7" s="3" t="s">
@@ -1829,7 +1797,7 @@
         <v>67</v>
       </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -1899,10 +1867,10 @@
       </c>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
-      <c r="AS8" s="7" t="s">
+      <c r="AS8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT8" s="7" t="s">
+      <c r="AT8" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU8" s="3" t="s">
@@ -1978,7 +1946,7 @@
         <v>67</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>97</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -2048,10 +2016,10 @@
       </c>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
-      <c r="AS9" s="7" t="s">
+      <c r="AS9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT9" s="7" t="s">
+      <c r="AT9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU9" s="3" t="s">
@@ -2127,7 +2095,7 @@
         <v>67</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -2197,10 +2165,10 @@
       </c>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
-      <c r="AS10" s="7" t="s">
+      <c r="AS10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT10" s="7" t="s">
+      <c r="AT10" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU10" s="3" t="s">
@@ -2276,7 +2244,7 @@
         <v>67</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -2346,10 +2314,10 @@
       </c>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="7" t="s">
+      <c r="AS11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AT11" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AU11" s="3" t="s">
